--- a/WebBasedEvaluations/Documents/Upload_Evaluation_-_EVAL-001.xlsx
+++ b/WebBasedEvaluations/Documents/Upload_Evaluation_-_EVAL-001.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sru365edu-my.sharepoint.com/personal/lsr1006_sru_edu/Documents/Semester 8 - Spring 2022/CPSC 488 - Software Engineering/Group Project/Documents/_Upload Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\git\Fall-2022-Group-3-Web-Evaluation\WebBasedEvaluations\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="670" documentId="13_ncr:1_{71BB3F0A-327D-4EAE-99AE-6AB6AF1A771F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79C08E74-9681-448B-B843-6CF09E94C37A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E0C37C-0C35-41AC-9B30-46FFFF9B7225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="720" windowWidth="22500" windowHeight="14460" xr2:uid="{3FAD3DD6-7A1D-42CB-BC54-8CFE443C5D15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3FAD3DD6-7A1D-42CB-BC54-8CFE443C5D15}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Eval_format" sheetId="1" r:id="rId1"/>
+    <sheet name="Depts" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="260">
   <si>
     <t>SECTION</t>
   </si>
@@ -781,6 +782,30 @@
   </si>
   <si>
     <t>Other Comments</t>
+  </si>
+  <si>
+    <t>Departments</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Floor Crew</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Upper Management</t>
+  </si>
+  <si>
+    <t>Safety</t>
   </si>
 </sst>
 </file>
@@ -876,14 +901,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1203,3827 +1225,3613 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB71D5F-847C-4FCF-938D-C2864C84F0D2}">
-  <dimension ref="A1:L433"/>
+  <dimension ref="A1:J433"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="5">
         <v>1</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="5">
         <v>2</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="5">
         <v>3</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="5">
         <v>4</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="5">
         <v>5</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="B9" s="8" t="b">
+      <c r="B9" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="5">
         <v>1</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="5">
         <v>2</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="5">
         <v>3</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="5">
         <v>4</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="5">
         <v>5</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="5">
         <v>1.99</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="5">
         <v>2.99</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="5">
         <v>3.99</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="5">
         <v>4.99</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="5">
         <v>5</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="B14" s="8" t="b">
+      <c r="B14" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" t="s">
         <v>210</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="4" t="s">
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="2" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="2" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" t="s">
         <v>33</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H31" t="s">
         <v>34</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I31" t="s">
         <v>35</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="J31" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="A33" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="2" t="s">
+      <c r="A38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="A40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="A41" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="A42" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B44" s="2" t="s">
+      <c r="A44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="A45" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="2" t="s">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" t="s">
         <v>26</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="A48" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="A50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" t="s">
         <v>43</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" t="s">
         <v>30</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" t="s">
         <v>44</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" t="s">
         <v>45</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="G50" t="s">
         <v>46</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="H50" t="s">
         <v>47</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="I50" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="A51" t="s">
         <v>28</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="A52" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="2" t="s">
+      <c r="A54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
         <v>48</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B56" s="2" t="s">
+      <c r="A56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" t="s">
         <v>9</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" t="s">
         <v>251</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="2" t="s">
+      <c r="A58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
         <v>246</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="A59" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="A60" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B62" s="2" t="s">
+      <c r="A62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" t="s">
         <v>9</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" t="s">
         <v>245</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" t="s">
         <v>247</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F62" t="s">
         <v>248</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="G62" t="s">
         <v>249</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="H62" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="A63" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+      <c r="A65" t="s">
         <v>0</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+      <c r="A66" t="s">
         <v>1</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="A67" t="s">
         <v>2</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="A68" t="s">
         <v>69</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="A69" t="s">
         <v>225</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" s="2" t="s">
+      <c r="A71" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s">
         <v>52</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="A72" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B74" s="2" t="s">
+      <c r="A74" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74" t="s">
         <v>9</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" t="s">
         <v>55</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="2" t="s">
+      <c r="A76" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s">
         <v>56</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="A77" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B79" s="2" t="s">
+      <c r="A79" t="s">
+        <v>24</v>
+      </c>
+      <c r="B79" t="s">
         <v>9</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" t="s">
         <v>58</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" s="2" t="s">
+      <c r="A81" t="s">
+        <v>24</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" t="s">
         <v>57</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+      <c r="A82" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B84" s="2" t="s">
+      <c r="A84" t="s">
+        <v>24</v>
+      </c>
+      <c r="B84" t="s">
         <v>9</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" t="s">
         <v>59</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" t="s">
         <v>30</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E84" t="s">
         <v>60</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="F84" t="s">
         <v>61</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="G84" t="s">
         <v>62</v>
       </c>
-      <c r="H84" s="2" t="s">
+      <c r="H84" t="s">
         <v>63</v>
       </c>
-      <c r="I84" s="2" t="s">
+      <c r="I84" t="s">
         <v>64</v>
       </c>
-      <c r="J84" s="2" t="s">
+      <c r="J84" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+      <c r="A85" t="s">
         <v>28</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" s="2" t="s">
+      <c r="A87" t="s">
+        <v>24</v>
+      </c>
+      <c r="B87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" t="s">
         <v>55</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" s="2" t="s">
+      <c r="A89" t="s">
+        <v>24</v>
+      </c>
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" t="s">
         <v>65</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+      <c r="A90" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B92" s="2" t="s">
+      <c r="A92" t="s">
+        <v>24</v>
+      </c>
+      <c r="B92" t="s">
         <v>9</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" t="s">
         <v>66</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B95" s="3" t="s">
+      <c r="A95" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3" t="s">
+      <c r="C95" s="2"/>
+      <c r="D95" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="96" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96" s="4" t="s">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>24</v>
+      </c>
+      <c r="B96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" t="s">
         <v>71</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D96" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+      <c r="A99" t="s">
         <v>1</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+      <c r="A100" t="s">
         <v>2</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+      <c r="A101" t="s">
         <v>69</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+      <c r="A102" t="s">
         <v>225</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C104" s="2" t="s">
+      <c r="A104" t="s">
+        <v>24</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" t="s">
         <v>73</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D104" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+      <c r="A105" t="s">
         <v>76</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+      <c r="A106" t="s">
         <v>77</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+      <c r="A107" t="s">
         <v>226</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B109" s="2" t="s">
+      <c r="A109" t="s">
+        <v>24</v>
+      </c>
+      <c r="B109" t="s">
         <v>9</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" t="s">
         <v>74</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D109" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
+      <c r="A110" t="s">
         <v>76</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+      <c r="A111" t="s">
         <v>77</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B111" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
+      <c r="A112" t="s">
         <v>226</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B113" s="6"/>
-    </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B114" s="2" t="s">
+      <c r="A114" t="s">
+        <v>24</v>
+      </c>
+      <c r="B114" t="s">
         <v>14</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" t="s">
         <v>75</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D114" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+      <c r="A115" t="s">
         <v>76</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
+      <c r="A116" t="s">
         <v>77</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="B116" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
+      <c r="A117" t="s">
         <v>226</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C119" s="2" t="s">
+      <c r="A119" t="s">
+        <v>24</v>
+      </c>
+      <c r="B119" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" t="s">
         <v>109</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D119" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
+      <c r="A120" t="s">
         <v>76</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
+      <c r="A121" t="s">
         <v>77</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="B121" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
+      <c r="A122" t="s">
         <v>226</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B123" s="6"/>
-    </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B124" s="2" t="s">
+      <c r="A124" t="s">
+        <v>24</v>
+      </c>
+      <c r="B124" t="s">
         <v>9</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" t="s">
         <v>78</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="D124" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
+      <c r="A125" t="s">
         <v>76</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
+      <c r="A126" t="s">
         <v>77</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="B126" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
+      <c r="A127" t="s">
         <v>226</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B128" s="6"/>
-    </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B129" s="2" t="s">
+      <c r="A129" t="s">
+        <v>24</v>
+      </c>
+      <c r="B129" t="s">
         <v>14</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" t="s">
         <v>108</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="D129" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
+      <c r="A130" t="s">
         <v>76</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
+      <c r="A131" t="s">
         <v>77</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B131" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
+      <c r="A132" t="s">
         <v>226</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C134" s="2" t="s">
+      <c r="A134" t="s">
+        <v>24</v>
+      </c>
+      <c r="B134" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" t="s">
         <v>107</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="D134" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
+      <c r="A135" t="s">
         <v>76</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
+      <c r="A136" t="s">
         <v>77</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B136" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
+      <c r="A137" t="s">
         <v>226</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B138" s="6"/>
-    </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B139" s="2" t="s">
+      <c r="A139" t="s">
+        <v>24</v>
+      </c>
+      <c r="B139" t="s">
         <v>9</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C139" t="s">
         <v>140</v>
       </c>
-      <c r="D139" s="2" t="s">
+      <c r="D139" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
+      <c r="A140" t="s">
         <v>76</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
+      <c r="A141" t="s">
         <v>77</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="B141" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
+      <c r="A142" t="s">
         <v>226</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B143" s="6"/>
-    </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B144" s="2" t="s">
+      <c r="A144" t="s">
+        <v>24</v>
+      </c>
+      <c r="B144" t="s">
         <v>14</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" t="s">
         <v>141</v>
       </c>
-      <c r="D144" s="2" t="s">
+      <c r="D144" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
+      <c r="A145" t="s">
         <v>76</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
+      <c r="A146" t="s">
         <v>77</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="B146" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
+      <c r="A147" t="s">
         <v>226</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C149" s="2" t="s">
+      <c r="A149" t="s">
+        <v>24</v>
+      </c>
+      <c r="B149" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" t="s">
         <v>106</v>
       </c>
-      <c r="D149" s="2" t="s">
+      <c r="D149" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
+      <c r="A150" t="s">
         <v>76</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
+      <c r="A151" t="s">
         <v>77</v>
       </c>
-      <c r="B151" s="6" t="s">
+      <c r="B151" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
+      <c r="A152" t="s">
         <v>226</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B153" s="6"/>
-    </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B154" s="2" t="s">
+      <c r="A154" t="s">
+        <v>24</v>
+      </c>
+      <c r="B154" t="s">
         <v>9</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C154" t="s">
         <v>105</v>
       </c>
-      <c r="D154" s="2" t="s">
+      <c r="D154" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
+      <c r="A155" t="s">
         <v>76</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="2" t="s">
+      <c r="A156" t="s">
         <v>77</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="B156" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
+      <c r="A157" t="s">
         <v>226</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B158" s="6"/>
-    </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B159" s="2" t="s">
+      <c r="A159" t="s">
+        <v>24</v>
+      </c>
+      <c r="B159" t="s">
         <v>14</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C159" t="s">
         <v>142</v>
       </c>
-      <c r="D159" s="2" t="s">
+      <c r="D159" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
+      <c r="A160" t="s">
         <v>76</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
+      <c r="A161" t="s">
         <v>77</v>
       </c>
-      <c r="B161" s="6" t="s">
+      <c r="B161" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="2" t="s">
+      <c r="A162" t="s">
         <v>226</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C164" s="2" t="s">
+      <c r="A164" t="s">
+        <v>24</v>
+      </c>
+      <c r="B164" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" t="s">
         <v>84</v>
       </c>
-      <c r="D164" s="2" t="s">
+      <c r="D164" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="2" t="s">
+      <c r="A165" t="s">
         <v>76</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B165" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="2" t="s">
+      <c r="A166" t="s">
         <v>77</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="B166" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="2" t="s">
+      <c r="A167" t="s">
         <v>226</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B167" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B168" s="6"/>
-    </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B169" s="2" t="s">
+      <c r="A169" t="s">
+        <v>24</v>
+      </c>
+      <c r="B169" t="s">
         <v>9</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C169" t="s">
         <v>103</v>
       </c>
-      <c r="D169" s="2" t="s">
+      <c r="D169" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="2" t="s">
+      <c r="A170" t="s">
         <v>76</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B170" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
+      <c r="A171" t="s">
         <v>77</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="B171" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
+      <c r="A172" t="s">
         <v>226</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B173" s="6"/>
-    </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B174" s="2" t="s">
+      <c r="A174" t="s">
+        <v>24</v>
+      </c>
+      <c r="B174" t="s">
         <v>14</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C174" t="s">
         <v>102</v>
       </c>
-      <c r="D174" s="2" t="s">
+      <c r="D174" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
+      <c r="A175" t="s">
         <v>76</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B175" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
+      <c r="A176" t="s">
         <v>77</v>
       </c>
-      <c r="B176" s="6" t="s">
+      <c r="B176" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="2" t="s">
+      <c r="A177" t="s">
         <v>226</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B177" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C179" s="2" t="s">
+      <c r="A179" t="s">
+        <v>24</v>
+      </c>
+      <c r="B179" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" t="s">
         <v>100</v>
       </c>
-      <c r="D179" s="2" t="s">
+      <c r="D179" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="2" t="s">
+      <c r="A180" t="s">
         <v>76</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B180" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="2" t="s">
+      <c r="A181" t="s">
         <v>77</v>
       </c>
-      <c r="B181" s="6" t="s">
+      <c r="B181" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="2" t="s">
+      <c r="A182" t="s">
         <v>226</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B182" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B183" s="6"/>
-    </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B184" s="2" t="s">
+      <c r="A184" t="s">
+        <v>24</v>
+      </c>
+      <c r="B184" t="s">
         <v>9</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="C184" t="s">
         <v>86</v>
       </c>
-      <c r="D184" s="2" t="s">
+      <c r="D184" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
+      <c r="A185" t="s">
         <v>76</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B185" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
+      <c r="A186" t="s">
         <v>77</v>
       </c>
-      <c r="B186" s="6" t="s">
+      <c r="B186" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
+      <c r="A187" t="s">
         <v>226</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B187" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B188" s="6"/>
-    </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B189" s="2" t="s">
+      <c r="A189" t="s">
+        <v>24</v>
+      </c>
+      <c r="B189" t="s">
         <v>14</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="C189" t="s">
         <v>101</v>
       </c>
-      <c r="D189" s="2" t="s">
+      <c r="D189" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="2" t="s">
+      <c r="A190" t="s">
         <v>76</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="2" t="s">
+      <c r="A191" t="s">
         <v>77</v>
       </c>
-      <c r="B191" s="6" t="s">
+      <c r="B191" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="2" t="s">
+      <c r="A192" t="s">
         <v>226</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B192" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C194" s="2" t="s">
+      <c r="A194" t="s">
+        <v>24</v>
+      </c>
+      <c r="B194" t="s">
+        <v>8</v>
+      </c>
+      <c r="C194" t="s">
         <v>82</v>
       </c>
-      <c r="D194" s="2" t="s">
+      <c r="D194" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
+      <c r="A195" t="s">
         <v>76</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B195" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
+      <c r="A196" t="s">
         <v>77</v>
       </c>
-      <c r="B196" s="6" t="s">
+      <c r="B196" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
+      <c r="A197" t="s">
         <v>226</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B197" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B198" s="6"/>
-    </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B199" s="2" t="s">
+      <c r="A199" t="s">
+        <v>24</v>
+      </c>
+      <c r="B199" t="s">
         <v>9</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="C199" t="s">
         <v>83</v>
       </c>
-      <c r="D199" s="2" t="s">
+      <c r="D199" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="2" t="s">
+      <c r="A200" t="s">
         <v>76</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B200" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="2" t="s">
+      <c r="A201" t="s">
         <v>77</v>
       </c>
-      <c r="B201" s="6" t="s">
+      <c r="B201" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="2" t="s">
+      <c r="A202" t="s">
         <v>226</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="B202" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B203" s="6"/>
-    </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B204" s="2" t="s">
+      <c r="A204" t="s">
+        <v>24</v>
+      </c>
+      <c r="B204" t="s">
         <v>14</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="C204" t="s">
         <v>80</v>
       </c>
-      <c r="D204" s="2" t="s">
+      <c r="D204" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="2" t="s">
+      <c r="A205" t="s">
         <v>76</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B205" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="2" t="s">
+      <c r="A206" t="s">
         <v>77</v>
       </c>
-      <c r="B206" s="7" t="s">
+      <c r="B206" s="4" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="2" t="s">
+      <c r="A207" t="s">
         <v>226</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B207" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C209" s="2" t="s">
+      <c r="A209" t="s">
+        <v>24</v>
+      </c>
+      <c r="B209" t="s">
+        <v>8</v>
+      </c>
+      <c r="C209" t="s">
         <v>104</v>
       </c>
-      <c r="D209" s="2" t="s">
+      <c r="D209" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
+      <c r="A210" t="s">
         <v>76</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B210" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
+      <c r="A211" t="s">
         <v>77</v>
       </c>
-      <c r="B211" s="6" t="s">
+      <c r="B211" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="2" t="s">
+      <c r="A212" t="s">
         <v>226</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="B212" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C214" s="2" t="s">
+      <c r="A214" t="s">
+        <v>24</v>
+      </c>
+      <c r="B214" t="s">
+        <v>8</v>
+      </c>
+      <c r="C214" t="s">
         <v>246</v>
       </c>
-      <c r="D214" s="2" t="s">
+      <c r="D214" t="s">
         <v>26</v>
       </c>
-      <c r="E214" s="2" t="s">
+      <c r="E214" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="2" t="s">
+      <c r="A215" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B216" s="6"/>
-    </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B217" s="2" t="s">
+      <c r="A217" t="s">
+        <v>24</v>
+      </c>
+      <c r="B217" t="s">
         <v>9</v>
       </c>
-      <c r="C217" s="2" t="s">
+      <c r="C217" t="s">
         <v>143</v>
       </c>
-      <c r="D217" s="2" t="s">
+      <c r="D217" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" s="2" t="s">
+      <c r="A218" t="s">
         <v>76</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="B218" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="2" t="s">
+      <c r="A219" t="s">
         <v>77</v>
       </c>
-      <c r="B219" s="6" t="s">
+      <c r="B219" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="2" t="s">
+      <c r="A220" t="s">
         <v>226</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="B220" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="2" t="s">
+      <c r="A221" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="3" t="s">
+      <c r="A222" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B222" s="3" t="s">
+      <c r="B222" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C222" s="3"/>
-      <c r="D222" s="3"/>
+      <c r="C222" s="2"/>
+      <c r="D222" s="2"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B223" s="3" t="s">
+      <c r="A223" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B223" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C223" s="3"/>
-      <c r="D223" s="3" t="s">
+      <c r="C223" s="2"/>
+      <c r="D223" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A225" s="5" t="s">
+      <c r="A225" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B225" s="5" t="s">
+      <c r="B225" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C225" s="5"/>
-      <c r="D225" s="5"/>
-      <c r="E225" s="5"/>
-      <c r="F225" s="5"/>
-      <c r="G225" s="5"/>
-      <c r="H225" s="5"/>
-      <c r="I225" s="5"/>
+      <c r="C225" s="3"/>
+      <c r="D225" s="3"/>
+      <c r="E225" s="3"/>
+      <c r="F225" s="3"/>
+      <c r="G225" s="3"/>
+      <c r="H225" s="3"/>
+      <c r="I225" s="3"/>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A226" s="2" t="s">
+      <c r="A226" t="s">
         <v>1</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="B226" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A227" s="2" t="s">
+      <c r="A227" t="s">
         <v>2</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="B227" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A228" s="2" t="s">
+      <c r="A228" t="s">
         <v>69</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="B228" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A229" s="2" t="s">
+      <c r="A229" t="s">
         <v>225</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="B229" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A231" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C231" s="2" t="s">
+      <c r="A231" t="s">
+        <v>24</v>
+      </c>
+      <c r="B231" t="s">
+        <v>8</v>
+      </c>
+      <c r="C231" t="s">
         <v>99</v>
       </c>
-      <c r="D231" s="2" t="s">
+      <c r="D231" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A232" s="2" t="s">
+      <c r="A232" t="s">
         <v>76</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="B232" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A233" s="2" t="s">
+      <c r="A233" t="s">
         <v>77</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B233" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A234" s="2" t="s">
+      <c r="A234" t="s">
         <v>226</v>
       </c>
-      <c r="B234" s="2" t="s">
+      <c r="B234" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A236" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B236" s="2" t="s">
+      <c r="A236" t="s">
+        <v>24</v>
+      </c>
+      <c r="B236" t="s">
         <v>9</v>
       </c>
-      <c r="C236" s="2" t="s">
+      <c r="C236" t="s">
         <v>98</v>
       </c>
-      <c r="D236" s="2" t="s">
+      <c r="D236" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A237" s="2" t="s">
+      <c r="A237" t="s">
         <v>76</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="B237" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A238" s="2" t="s">
+      <c r="A238" t="s">
         <v>77</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="B238" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A239" s="2" t="s">
+      <c r="A239" t="s">
         <v>226</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="B239" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B241" s="2" t="s">
+      <c r="A241" t="s">
+        <v>24</v>
+      </c>
+      <c r="B241" t="s">
         <v>14</v>
       </c>
-      <c r="C241" s="2" t="s">
+      <c r="C241" t="s">
         <v>97</v>
       </c>
-      <c r="D241" s="2" t="s">
+      <c r="D241" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" s="2" t="s">
+      <c r="A242" t="s">
         <v>76</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="B242" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243" s="2" t="s">
+      <c r="A243" t="s">
         <v>77</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="B243" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" s="2" t="s">
+      <c r="A244" t="s">
         <v>226</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="B244" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A246" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C246" s="2" t="s">
+      <c r="A246" t="s">
+        <v>24</v>
+      </c>
+      <c r="B246" t="s">
+        <v>8</v>
+      </c>
+      <c r="C246" t="s">
         <v>96</v>
       </c>
-      <c r="D246" s="2" t="s">
+      <c r="D246" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A247" s="2" t="s">
+      <c r="A247" t="s">
         <v>76</v>
       </c>
-      <c r="B247" s="2" t="s">
+      <c r="B247" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248" s="2" t="s">
+      <c r="A248" t="s">
         <v>77</v>
       </c>
-      <c r="B248" s="2" t="s">
+      <c r="B248" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249" s="2" t="s">
+      <c r="A249" t="s">
         <v>226</v>
       </c>
-      <c r="B249" s="2" t="s">
+      <c r="B249" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B251" s="2" t="s">
+      <c r="A251" t="s">
+        <v>24</v>
+      </c>
+      <c r="B251" t="s">
         <v>9</v>
       </c>
-      <c r="C251" s="2" t="s">
+      <c r="C251" t="s">
         <v>81</v>
       </c>
-      <c r="D251" s="2" t="s">
+      <c r="D251" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252" s="2" t="s">
+      <c r="A252" t="s">
         <v>76</v>
       </c>
-      <c r="B252" s="2" t="s">
+      <c r="B252" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253" s="2" t="s">
+      <c r="A253" t="s">
         <v>77</v>
       </c>
-      <c r="B253" s="2" t="s">
+      <c r="B253" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254" s="2" t="s">
+      <c r="A254" t="s">
         <v>226</v>
       </c>
-      <c r="B254" s="2" t="s">
+      <c r="B254" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B256" s="2" t="s">
+      <c r="A256" t="s">
+        <v>24</v>
+      </c>
+      <c r="B256" t="s">
         <v>14</v>
       </c>
-      <c r="C256" s="2" t="s">
+      <c r="C256" t="s">
         <v>95</v>
       </c>
-      <c r="D256" s="2" t="s">
+      <c r="D256" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A257" s="2" t="s">
+      <c r="A257" t="s">
         <v>76</v>
       </c>
-      <c r="B257" s="2" t="s">
+      <c r="B257" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A258" s="2" t="s">
+      <c r="A258" t="s">
         <v>77</v>
       </c>
-      <c r="B258" s="2" t="s">
+      <c r="B258" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A259" s="2" t="s">
+      <c r="A259" t="s">
         <v>226</v>
       </c>
-      <c r="B259" s="2" t="s">
+      <c r="B259" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A261" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C261" s="2" t="s">
+      <c r="A261" t="s">
+        <v>24</v>
+      </c>
+      <c r="B261" t="s">
+        <v>8</v>
+      </c>
+      <c r="C261" t="s">
         <v>94</v>
       </c>
-      <c r="D261" s="2" t="s">
+      <c r="D261" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A262" s="2" t="s">
+      <c r="A262" t="s">
         <v>76</v>
       </c>
-      <c r="B262" s="2" t="s">
+      <c r="B262" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A263" s="2" t="s">
+      <c r="A263" t="s">
         <v>77</v>
       </c>
-      <c r="B263" s="2" t="s">
+      <c r="B263" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A264" s="2" t="s">
+      <c r="A264" t="s">
         <v>226</v>
       </c>
-      <c r="B264" s="2" t="s">
+      <c r="B264" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A266" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B266" s="2" t="s">
+      <c r="A266" t="s">
+        <v>24</v>
+      </c>
+      <c r="B266" t="s">
         <v>9</v>
       </c>
-      <c r="C266" s="2" t="s">
+      <c r="C266" t="s">
         <v>93</v>
       </c>
-      <c r="D266" s="2" t="s">
+      <c r="D266" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A267" s="2" t="s">
+      <c r="A267" t="s">
         <v>76</v>
       </c>
-      <c r="B267" s="2" t="s">
+      <c r="B267" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A268" s="2" t="s">
+      <c r="A268" t="s">
         <v>77</v>
       </c>
-      <c r="B268" s="2" t="s">
+      <c r="B268" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A269" s="2" t="s">
+      <c r="A269" t="s">
         <v>226</v>
       </c>
-      <c r="B269" s="2" t="s">
+      <c r="B269" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A271" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B271" s="2" t="s">
+      <c r="A271" t="s">
+        <v>24</v>
+      </c>
+      <c r="B271" t="s">
         <v>14</v>
       </c>
-      <c r="C271" s="2" t="s">
+      <c r="C271" t="s">
         <v>91</v>
       </c>
-      <c r="D271" s="2" t="s">
+      <c r="D271" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A272" s="2" t="s">
+      <c r="A272" t="s">
         <v>76</v>
       </c>
-      <c r="B272" s="2" t="s">
+      <c r="B272" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A273" s="2" t="s">
+      <c r="A273" t="s">
         <v>77</v>
       </c>
-      <c r="B273" s="2" t="s">
+      <c r="B273" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A274" s="2" t="s">
+      <c r="A274" t="s">
         <v>226</v>
       </c>
-      <c r="B274" s="2" t="s">
+      <c r="B274" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A276" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C276" s="2" t="s">
+      <c r="A276" t="s">
+        <v>24</v>
+      </c>
+      <c r="B276" t="s">
+        <v>8</v>
+      </c>
+      <c r="C276" t="s">
         <v>92</v>
       </c>
-      <c r="D276" s="2" t="s">
+      <c r="D276" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A277" s="2" t="s">
+      <c r="A277" t="s">
         <v>76</v>
       </c>
-      <c r="B277" s="2" t="s">
+      <c r="B277" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A278" s="2" t="s">
+      <c r="A278" t="s">
         <v>77</v>
       </c>
-      <c r="B278" s="2" t="s">
+      <c r="B278" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A279" s="2" t="s">
+      <c r="A279" t="s">
         <v>226</v>
       </c>
-      <c r="B279" s="2" t="s">
+      <c r="B279" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A281" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B281" s="2" t="s">
+      <c r="A281" t="s">
+        <v>24</v>
+      </c>
+      <c r="B281" t="s">
         <v>9</v>
       </c>
-      <c r="C281" s="2" t="s">
+      <c r="C281" t="s">
         <v>79</v>
       </c>
-      <c r="D281" s="2" t="s">
+      <c r="D281" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A282" s="2" t="s">
+      <c r="A282" t="s">
         <v>76</v>
       </c>
-      <c r="B282" s="2" t="s">
+      <c r="B282" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A283" s="2" t="s">
+      <c r="A283" t="s">
         <v>77</v>
       </c>
-      <c r="B283" s="2" t="s">
+      <c r="B283" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A284" s="2" t="s">
+      <c r="A284" t="s">
         <v>226</v>
       </c>
-      <c r="B284" s="2" t="s">
+      <c r="B284" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A286" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B286" s="2" t="s">
+      <c r="A286" t="s">
+        <v>24</v>
+      </c>
+      <c r="B286" t="s">
         <v>14</v>
       </c>
-      <c r="C286" s="2" t="s">
+      <c r="C286" t="s">
         <v>90</v>
       </c>
-      <c r="D286" s="2" t="s">
+      <c r="D286" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A287" s="2" t="s">
+      <c r="A287" t="s">
         <v>76</v>
       </c>
-      <c r="B287" s="2" t="s">
+      <c r="B287" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A288" s="2" t="s">
+      <c r="A288" t="s">
         <v>77</v>
       </c>
-      <c r="B288" s="2" t="s">
+      <c r="B288" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A289" s="2" t="s">
+      <c r="A289" t="s">
         <v>226</v>
       </c>
-      <c r="B289" s="2" t="s">
+      <c r="B289" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A291" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C291" s="2" t="s">
+      <c r="A291" t="s">
+        <v>24</v>
+      </c>
+      <c r="B291" t="s">
+        <v>8</v>
+      </c>
+      <c r="C291" t="s">
         <v>89</v>
       </c>
-      <c r="D291" s="2" t="s">
+      <c r="D291" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A292" s="2" t="s">
+      <c r="A292" t="s">
         <v>76</v>
       </c>
-      <c r="B292" s="2" t="s">
+      <c r="B292" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A293" s="2" t="s">
+      <c r="A293" t="s">
         <v>77</v>
       </c>
-      <c r="B293" s="2" t="s">
+      <c r="B293" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A294" s="2" t="s">
+      <c r="A294" t="s">
         <v>226</v>
       </c>
-      <c r="B294" s="2" t="s">
+      <c r="B294" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A296" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B296" s="2" t="s">
+      <c r="A296" t="s">
+        <v>24</v>
+      </c>
+      <c r="B296" t="s">
         <v>9</v>
       </c>
-      <c r="C296" s="2" t="s">
+      <c r="C296" t="s">
         <v>88</v>
       </c>
-      <c r="D296" s="2" t="s">
+      <c r="D296" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A297" s="2" t="s">
+      <c r="A297" t="s">
         <v>76</v>
       </c>
-      <c r="B297" s="2" t="s">
+      <c r="B297" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A298" s="2" t="s">
+      <c r="A298" t="s">
         <v>77</v>
       </c>
-      <c r="B298" s="2" t="s">
+      <c r="B298" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A299" s="2" t="s">
+      <c r="A299" t="s">
         <v>226</v>
       </c>
-      <c r="B299" s="2" t="s">
+      <c r="B299" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A301" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B301" s="2" t="s">
+      <c r="A301" t="s">
+        <v>24</v>
+      </c>
+      <c r="B301" t="s">
         <v>14</v>
       </c>
-      <c r="C301" s="2" t="s">
+      <c r="C301" t="s">
         <v>87</v>
       </c>
-      <c r="D301" s="2" t="s">
+      <c r="D301" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A302" s="2" t="s">
+      <c r="A302" t="s">
         <v>76</v>
       </c>
-      <c r="B302" s="2" t="s">
+      <c r="B302" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A303" s="2" t="s">
+      <c r="A303" t="s">
         <v>77</v>
       </c>
-      <c r="B303" s="2" t="s">
+      <c r="B303" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A304" s="2" t="s">
+      <c r="A304" t="s">
         <v>226</v>
       </c>
-      <c r="B304" s="2" t="s">
+      <c r="B304" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A306" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B306" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C306" s="2" t="s">
+      <c r="A306" t="s">
+        <v>24</v>
+      </c>
+      <c r="B306" t="s">
+        <v>8</v>
+      </c>
+      <c r="C306" t="s">
         <v>85</v>
       </c>
-      <c r="D306" s="2" t="s">
+      <c r="D306" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A307" s="2" t="s">
+      <c r="A307" t="s">
         <v>76</v>
       </c>
-      <c r="B307" s="2" t="s">
+      <c r="B307" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A308" s="2" t="s">
+      <c r="A308" t="s">
         <v>77</v>
       </c>
-      <c r="B308" s="2" t="s">
+      <c r="B308" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A309" s="2" t="s">
+      <c r="A309" t="s">
         <v>226</v>
       </c>
-      <c r="B309" s="2" t="s">
+      <c r="B309" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A311" s="3" t="s">
+      <c r="A311" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B311" s="3" t="s">
+      <c r="B311" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C311" s="3"/>
-      <c r="D311" s="3"/>
+      <c r="C311" s="2"/>
+      <c r="D311" s="2"/>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A312" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B312" s="3" t="s">
+      <c r="A312" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B312" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C312" s="3"/>
-      <c r="D312" s="3" t="s">
+      <c r="C312" s="2"/>
+      <c r="D312" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A314" s="5" t="s">
+      <c r="A314" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B314" s="5" t="s">
+      <c r="B314" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C314" s="5"/>
-      <c r="D314" s="5"/>
-      <c r="E314" s="5"/>
-      <c r="F314" s="5"/>
-      <c r="G314" s="5"/>
-      <c r="H314" s="5"/>
-      <c r="I314" s="5"/>
+      <c r="C314" s="3"/>
+      <c r="D314" s="3"/>
+      <c r="E314" s="3"/>
+      <c r="F314" s="3"/>
+      <c r="G314" s="3"/>
+      <c r="H314" s="3"/>
+      <c r="I314" s="3"/>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A315" s="2" t="s">
+      <c r="A315" t="s">
         <v>1</v>
       </c>
-      <c r="B315" s="2" t="s">
+      <c r="B315" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A316" s="2" t="s">
+      <c r="A316" t="s">
         <v>2</v>
       </c>
-      <c r="B316" s="2" t="s">
+      <c r="B316" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A317" s="2" t="s">
+      <c r="A317" t="s">
         <v>69</v>
       </c>
-      <c r="B317" s="2" t="s">
+      <c r="B317" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A318" s="2" t="s">
+      <c r="A318" t="s">
         <v>225</v>
       </c>
-      <c r="B318" s="2" t="s">
+      <c r="B318" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A320" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B320" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C320" s="2" t="s">
+      <c r="A320" t="s">
+        <v>24</v>
+      </c>
+      <c r="B320" t="s">
+        <v>8</v>
+      </c>
+      <c r="C320" t="s">
         <v>146</v>
       </c>
-      <c r="D320" s="2" t="s">
+      <c r="D320" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A321" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B321" s="2" t="s">
+      <c r="A321" t="s">
+        <v>24</v>
+      </c>
+      <c r="B321" t="s">
         <v>9</v>
       </c>
-      <c r="C321" s="2" t="s">
+      <c r="C321" t="s">
         <v>147</v>
       </c>
-      <c r="D321" s="2" t="s">
+      <c r="D321" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A322" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B322" s="2" t="s">
+      <c r="A322" t="s">
+        <v>24</v>
+      </c>
+      <c r="B322" t="s">
         <v>14</v>
       </c>
-      <c r="C322" s="2" t="s">
+      <c r="C322" t="s">
         <v>150</v>
       </c>
-      <c r="D322" s="2" t="s">
+      <c r="D322" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A324" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B324" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C324" s="2" t="s">
+      <c r="A324" t="s">
+        <v>24</v>
+      </c>
+      <c r="B324" t="s">
+        <v>8</v>
+      </c>
+      <c r="C324" t="s">
         <v>148</v>
       </c>
-      <c r="D324" s="2" t="s">
+      <c r="D324" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A325" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B325" s="2" t="s">
+      <c r="A325" t="s">
+        <v>24</v>
+      </c>
+      <c r="B325" t="s">
         <v>9</v>
       </c>
-      <c r="C325" s="2" t="s">
+      <c r="C325" t="s">
         <v>149</v>
       </c>
-      <c r="D325" s="2" t="s">
+      <c r="D325" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A326" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B326" s="2" t="s">
+      <c r="A326" t="s">
+        <v>24</v>
+      </c>
+      <c r="B326" t="s">
         <v>14</v>
       </c>
-      <c r="C326" s="2" t="s">
+      <c r="C326" t="s">
         <v>151</v>
       </c>
-      <c r="D326" s="2" t="s">
+      <c r="D326" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A328" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B328" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C328" s="2" t="s">
+      <c r="A328" t="s">
+        <v>24</v>
+      </c>
+      <c r="B328" t="s">
+        <v>8</v>
+      </c>
+      <c r="C328" t="s">
         <v>152</v>
       </c>
-      <c r="D328" s="2" t="s">
+      <c r="D328" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A329" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B329" s="2" t="s">
+      <c r="A329" t="s">
+        <v>24</v>
+      </c>
+      <c r="B329" t="s">
         <v>9</v>
       </c>
-      <c r="C329" s="2" t="s">
+      <c r="C329" t="s">
         <v>153</v>
       </c>
-      <c r="D329" s="2" t="s">
+      <c r="D329" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A331" s="3" t="s">
+      <c r="A331" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B331" s="3" t="s">
+      <c r="B331" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C331" s="3"/>
-      <c r="D331" s="3"/>
+      <c r="C331" s="2"/>
+      <c r="D331" s="2"/>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A332" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B332" s="3" t="s">
+      <c r="A332" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B332" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C332" s="3"/>
-      <c r="D332" s="3" t="s">
+      <c r="C332" s="2"/>
+      <c r="D332" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A334" s="5" t="s">
+      <c r="A334" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B334" s="5" t="s">
+      <c r="B334" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C334" s="5"/>
-      <c r="D334" s="5"/>
-      <c r="E334" s="5"/>
-      <c r="F334" s="5"/>
-      <c r="G334" s="5"/>
-      <c r="H334" s="5"/>
-      <c r="I334" s="5"/>
+      <c r="C334" s="3"/>
+      <c r="D334" s="3"/>
+      <c r="E334" s="3"/>
+      <c r="F334" s="3"/>
+      <c r="G334" s="3"/>
+      <c r="H334" s="3"/>
+      <c r="I334" s="3"/>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A335" s="2" t="s">
+      <c r="A335" t="s">
         <v>1</v>
       </c>
-      <c r="B335" s="2" t="s">
+      <c r="B335" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A336" s="2" t="s">
+      <c r="A336" t="s">
         <v>2</v>
       </c>
-      <c r="B336" s="2" t="s">
+      <c r="B336" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A337" s="2" t="s">
+      <c r="A337" t="s">
         <v>69</v>
       </c>
-      <c r="B337" s="2" t="s">
+      <c r="B337" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A338" s="2" t="s">
+      <c r="A338" t="s">
         <v>225</v>
       </c>
-      <c r="B338" s="2" t="s">
+      <c r="B338" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A340" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B340" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C340" s="2" t="s">
+      <c r="A340" t="s">
+        <v>24</v>
+      </c>
+      <c r="B340" t="s">
+        <v>8</v>
+      </c>
+      <c r="C340" t="s">
         <v>155</v>
       </c>
-      <c r="D340" s="2" t="s">
+      <c r="D340" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A341" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B341" s="2" t="s">
+      <c r="A341" t="s">
+        <v>24</v>
+      </c>
+      <c r="B341" t="s">
         <v>9</v>
       </c>
-      <c r="C341" s="2" t="s">
+      <c r="C341" t="s">
         <v>156</v>
       </c>
-      <c r="D341" s="2" t="s">
+      <c r="D341" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A342" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B342" s="2" t="s">
+      <c r="A342" t="s">
+        <v>24</v>
+      </c>
+      <c r="B342" t="s">
         <v>14</v>
       </c>
-      <c r="C342" s="2" t="s">
+      <c r="C342" t="s">
         <v>157</v>
       </c>
-      <c r="D342" s="2" t="s">
+      <c r="D342" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A344" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B344" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C344" s="2" t="s">
+      <c r="A344" t="s">
+        <v>24</v>
+      </c>
+      <c r="B344" t="s">
+        <v>8</v>
+      </c>
+      <c r="C344" t="s">
         <v>158</v>
       </c>
-      <c r="D344" s="2" t="s">
+      <c r="D344" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A345" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B345" s="2" t="s">
+      <c r="A345" t="s">
+        <v>24</v>
+      </c>
+      <c r="B345" t="s">
         <v>9</v>
       </c>
-      <c r="C345" s="2" t="s">
+      <c r="C345" t="s">
         <v>151</v>
       </c>
-      <c r="D345" s="2" t="s">
+      <c r="D345" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A346" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B346" s="2" t="s">
+      <c r="A346" t="s">
+        <v>24</v>
+      </c>
+      <c r="B346" t="s">
         <v>14</v>
       </c>
-      <c r="C346" s="2" t="s">
+      <c r="C346" t="s">
         <v>159</v>
       </c>
-      <c r="D346" s="2" t="s">
+      <c r="D346" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A348" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B348" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C348" s="2" t="s">
+      <c r="A348" t="s">
+        <v>24</v>
+      </c>
+      <c r="B348" t="s">
+        <v>8</v>
+      </c>
+      <c r="C348" t="s">
         <v>160</v>
       </c>
-      <c r="D348" s="2" t="s">
+      <c r="D348" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A349" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B349" s="2" t="s">
+      <c r="A349" t="s">
+        <v>24</v>
+      </c>
+      <c r="B349" t="s">
         <v>9</v>
       </c>
-      <c r="C349" s="2" t="s">
+      <c r="C349" t="s">
         <v>161</v>
       </c>
-      <c r="D349" s="2" t="s">
+      <c r="D349" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A350" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B350" s="2" t="s">
+      <c r="A350" t="s">
+        <v>24</v>
+      </c>
+      <c r="B350" t="s">
         <v>14</v>
       </c>
-      <c r="C350" s="2" t="s">
+      <c r="C350" t="s">
         <v>162</v>
       </c>
-      <c r="D350" s="2" t="s">
+      <c r="D350" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A352" s="3" t="s">
+      <c r="A352" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B352" s="3" t="s">
+      <c r="B352" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C352" s="3"/>
-      <c r="D352" s="3"/>
+      <c r="C352" s="2"/>
+      <c r="D352" s="2"/>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A353" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B353" s="3" t="s">
+      <c r="A353" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B353" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C353" s="3"/>
-      <c r="D353" s="3" t="s">
+      <c r="C353" s="2"/>
+      <c r="D353" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A355" s="5" t="s">
+      <c r="A355" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B355" s="5" t="s">
+      <c r="B355" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C355" s="5"/>
-      <c r="D355" s="5"/>
-      <c r="E355" s="5"/>
-      <c r="F355" s="5"/>
-      <c r="G355" s="5"/>
-      <c r="H355" s="5"/>
-      <c r="I355" s="5"/>
+      <c r="C355" s="3"/>
+      <c r="D355" s="3"/>
+      <c r="E355" s="3"/>
+      <c r="F355" s="3"/>
+      <c r="G355" s="3"/>
+      <c r="H355" s="3"/>
+      <c r="I355" s="3"/>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A356" s="2" t="s">
+      <c r="A356" t="s">
         <v>1</v>
       </c>
-      <c r="B356" s="2" t="s">
+      <c r="B356" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A357" s="2" t="s">
+      <c r="A357" t="s">
         <v>2</v>
       </c>
-      <c r="B357" s="2" t="s">
+      <c r="B357" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A358" s="2" t="s">
+      <c r="A358" t="s">
         <v>69</v>
       </c>
-      <c r="B358" s="2" t="s">
+      <c r="B358" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A359" s="2" t="s">
+      <c r="A359" t="s">
         <v>225</v>
       </c>
-      <c r="B359" s="2" t="s">
+      <c r="B359" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A361" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B361" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C361" s="2" t="s">
+      <c r="A361" t="s">
+        <v>24</v>
+      </c>
+      <c r="B361" t="s">
+        <v>8</v>
+      </c>
+      <c r="C361" t="s">
         <v>164</v>
       </c>
-      <c r="D361" s="2" t="s">
+      <c r="D361" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A362" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B362" s="2" t="s">
+      <c r="A362" t="s">
+        <v>24</v>
+      </c>
+      <c r="B362" t="s">
         <v>9</v>
       </c>
-      <c r="C362" s="2" t="s">
+      <c r="C362" t="s">
         <v>165</v>
       </c>
-      <c r="D362" s="2" t="s">
+      <c r="D362" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A363" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B363" s="2" t="s">
+      <c r="A363" t="s">
+        <v>24</v>
+      </c>
+      <c r="B363" t="s">
         <v>14</v>
       </c>
-      <c r="C363" s="2" t="s">
+      <c r="C363" t="s">
         <v>167</v>
       </c>
-      <c r="D363" s="2" t="s">
+      <c r="D363" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A365" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B365" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C365" s="2" t="s">
+      <c r="A365" t="s">
+        <v>24</v>
+      </c>
+      <c r="B365" t="s">
+        <v>8</v>
+      </c>
+      <c r="C365" t="s">
         <v>166</v>
       </c>
-      <c r="D365" s="2" t="s">
+      <c r="D365" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A366" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B366" s="2" t="s">
+      <c r="A366" t="s">
+        <v>24</v>
+      </c>
+      <c r="B366" t="s">
         <v>9</v>
       </c>
-      <c r="C366" s="2" t="s">
+      <c r="C366" t="s">
         <v>160</v>
       </c>
-      <c r="D366" s="2" t="s">
+      <c r="D366" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A367" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B367" s="2" t="s">
+      <c r="A367" t="s">
+        <v>24</v>
+      </c>
+      <c r="B367" t="s">
         <v>14</v>
       </c>
-      <c r="C367" s="2" t="s">
+      <c r="C367" t="s">
         <v>159</v>
       </c>
-      <c r="D367" s="2" t="s">
+      <c r="D367" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A369" s="3" t="s">
+      <c r="A369" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B369" s="3" t="s">
+      <c r="B369" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C369" s="3"/>
-      <c r="D369" s="3"/>
+      <c r="C369" s="2"/>
+      <c r="D369" s="2"/>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A370" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B370" s="3" t="s">
+      <c r="A370" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B370" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C370" s="3"/>
-      <c r="D370" s="3" t="s">
+      <c r="C370" s="2"/>
+      <c r="D370" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A372" s="5" t="s">
+      <c r="A372" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B372" s="5" t="s">
+      <c r="B372" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C372" s="5"/>
-      <c r="D372" s="5"/>
-      <c r="E372" s="5"/>
-      <c r="F372" s="5"/>
-      <c r="G372" s="5"/>
-      <c r="H372" s="5"/>
-      <c r="I372" s="5"/>
+      <c r="C372" s="3"/>
+      <c r="D372" s="3"/>
+      <c r="E372" s="3"/>
+      <c r="F372" s="3"/>
+      <c r="G372" s="3"/>
+      <c r="H372" s="3"/>
+      <c r="I372" s="3"/>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A373" s="2" t="s">
+      <c r="A373" t="s">
         <v>1</v>
       </c>
-      <c r="B373" s="2" t="s">
+      <c r="B373" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A374" s="2" t="s">
+      <c r="A374" t="s">
         <v>2</v>
       </c>
-      <c r="B374" s="2" t="s">
+      <c r="B374" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A375" s="2" t="s">
+      <c r="A375" t="s">
         <v>69</v>
       </c>
-      <c r="B375" s="2" t="s">
+      <c r="B375" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A376" s="2" t="s">
+      <c r="A376" t="s">
         <v>225</v>
       </c>
-      <c r="B376" s="2" t="s">
+      <c r="B376" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A378" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B378" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C378" s="2" t="s">
+      <c r="A378" t="s">
+        <v>24</v>
+      </c>
+      <c r="B378" t="s">
+        <v>8</v>
+      </c>
+      <c r="C378" t="s">
         <v>169</v>
       </c>
-      <c r="D378" s="2" t="s">
+      <c r="D378" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A379" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B379" s="2" t="s">
+      <c r="A379" t="s">
+        <v>24</v>
+      </c>
+      <c r="B379" t="s">
         <v>9</v>
       </c>
-      <c r="C379" s="2" t="s">
+      <c r="C379" t="s">
         <v>170</v>
       </c>
-      <c r="D379" s="2" t="s">
+      <c r="D379" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A380" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B380" s="2" t="s">
+      <c r="A380" t="s">
+        <v>24</v>
+      </c>
+      <c r="B380" t="s">
         <v>14</v>
       </c>
-      <c r="C380" s="2" t="s">
+      <c r="C380" t="s">
         <v>171</v>
       </c>
-      <c r="D380" s="2" t="s">
+      <c r="D380" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A382" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B382" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C382" s="2" t="s">
+      <c r="A382" t="s">
+        <v>24</v>
+      </c>
+      <c r="B382" t="s">
+        <v>8</v>
+      </c>
+      <c r="C382" t="s">
         <v>172</v>
       </c>
-      <c r="D382" s="2" t="s">
+      <c r="D382" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A383" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B383" s="2" t="s">
+      <c r="A383" t="s">
+        <v>24</v>
+      </c>
+      <c r="B383" t="s">
         <v>9</v>
       </c>
-      <c r="C383" s="2" t="s">
+      <c r="C383" t="s">
         <v>173</v>
       </c>
-      <c r="D383" s="2" t="s">
+      <c r="D383" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A384" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B384" s="2" t="s">
+      <c r="A384" t="s">
+        <v>24</v>
+      </c>
+      <c r="B384" t="s">
         <v>14</v>
       </c>
-      <c r="C384" s="2" t="s">
+      <c r="C384" t="s">
         <v>174</v>
       </c>
-      <c r="D384" s="2" t="s">
+      <c r="D384" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A386" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B386" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C386" s="2" t="s">
+      <c r="A386" t="s">
+        <v>24</v>
+      </c>
+      <c r="B386" t="s">
+        <v>8</v>
+      </c>
+      <c r="C386" t="s">
         <v>175</v>
       </c>
-      <c r="D386" s="2" t="s">
+      <c r="D386" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A387" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B387" s="2" t="s">
+      <c r="A387" t="s">
+        <v>24</v>
+      </c>
+      <c r="B387" t="s">
         <v>9</v>
       </c>
-      <c r="C387" s="2" t="s">
+      <c r="C387" t="s">
         <v>176</v>
       </c>
-      <c r="D387" s="2" t="s">
+      <c r="D387" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A388" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B388" s="2" t="s">
+      <c r="A388" t="s">
+        <v>24</v>
+      </c>
+      <c r="B388" t="s">
         <v>14</v>
       </c>
-      <c r="C388" s="2" t="s">
+      <c r="C388" t="s">
         <v>177</v>
       </c>
-      <c r="D388" s="2" t="s">
+      <c r="D388" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A390" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B390" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C390" s="2" t="s">
+      <c r="A390" t="s">
+        <v>24</v>
+      </c>
+      <c r="B390" t="s">
+        <v>8</v>
+      </c>
+      <c r="C390" t="s">
         <v>178</v>
       </c>
-      <c r="D390" s="2" t="s">
+      <c r="D390" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A391" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B391" s="2" t="s">
+      <c r="A391" t="s">
+        <v>24</v>
+      </c>
+      <c r="B391" t="s">
         <v>9</v>
       </c>
-      <c r="C391" s="2" t="s">
+      <c r="C391" t="s">
         <v>179</v>
       </c>
-      <c r="D391" s="2" t="s">
+      <c r="D391" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A392" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B392" s="2" t="s">
+      <c r="A392" t="s">
+        <v>24</v>
+      </c>
+      <c r="B392" t="s">
         <v>14</v>
       </c>
-      <c r="C392" s="2" t="s">
+      <c r="C392" t="s">
         <v>180</v>
       </c>
-      <c r="D392" s="2" t="s">
+      <c r="D392" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A394" s="3" t="s">
+      <c r="A394" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B394" s="3" t="s">
+      <c r="B394" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C394" s="3"/>
-      <c r="D394" s="3"/>
+      <c r="C394" s="2"/>
+      <c r="D394" s="2"/>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A395" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B395" s="3" t="s">
+      <c r="A395" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B395" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C395" s="3"/>
-      <c r="D395" s="3" t="s">
+      <c r="C395" s="2"/>
+      <c r="D395" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A397" s="5" t="s">
+      <c r="A397" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B397" s="5" t="s">
+      <c r="B397" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C397" s="5"/>
-      <c r="D397" s="5"/>
-      <c r="E397" s="5"/>
-      <c r="F397" s="5"/>
-      <c r="G397" s="5"/>
-      <c r="H397" s="5"/>
-      <c r="I397" s="5"/>
+      <c r="C397" s="3"/>
+      <c r="D397" s="3"/>
+      <c r="E397" s="3"/>
+      <c r="F397" s="3"/>
+      <c r="G397" s="3"/>
+      <c r="H397" s="3"/>
+      <c r="I397" s="3"/>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A398" s="2" t="s">
+      <c r="A398" t="s">
         <v>1</v>
       </c>
-      <c r="B398" s="2" t="s">
+      <c r="B398" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A399" s="2" t="s">
+      <c r="A399" t="s">
         <v>2</v>
       </c>
-      <c r="B399" s="2" t="s">
+      <c r="B399" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A400" s="2" t="s">
+      <c r="A400" t="s">
         <v>69</v>
       </c>
-      <c r="B400" s="2" t="s">
+      <c r="B400" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A401" s="2" t="s">
+      <c r="A401" t="s">
         <v>225</v>
       </c>
-      <c r="B401" s="2" t="s">
+      <c r="B401" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A403" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B403" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C403" s="2" t="s">
+      <c r="A403" t="s">
+        <v>24</v>
+      </c>
+      <c r="B403" t="s">
+        <v>8</v>
+      </c>
+      <c r="C403" t="s">
         <v>182</v>
       </c>
-      <c r="D403" s="2" t="s">
+      <c r="D403" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A404" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B404" s="2" t="s">
+      <c r="A404" t="s">
+        <v>24</v>
+      </c>
+      <c r="B404" t="s">
         <v>9</v>
       </c>
-      <c r="C404" s="2" t="s">
+      <c r="C404" t="s">
         <v>183</v>
       </c>
-      <c r="D404" s="2" t="s">
+      <c r="D404" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A405" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B405" s="2" t="s">
+      <c r="A405" t="s">
+        <v>24</v>
+      </c>
+      <c r="B405" t="s">
         <v>14</v>
       </c>
-      <c r="C405" s="2" t="s">
+      <c r="C405" t="s">
         <v>184</v>
       </c>
-      <c r="D405" s="2" t="s">
+      <c r="D405" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A407" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B407" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C407" s="2" t="s">
+      <c r="A407" t="s">
+        <v>24</v>
+      </c>
+      <c r="B407" t="s">
+        <v>8</v>
+      </c>
+      <c r="C407" t="s">
         <v>185</v>
       </c>
-      <c r="D407" s="2" t="s">
+      <c r="D407" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A408" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B408" s="2" t="s">
+      <c r="A408" t="s">
+        <v>24</v>
+      </c>
+      <c r="B408" t="s">
         <v>9</v>
       </c>
-      <c r="C408" s="2" t="s">
+      <c r="C408" t="s">
         <v>186</v>
       </c>
-      <c r="D408" s="2" t="s">
+      <c r="D408" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A409" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B409" s="2" t="s">
+      <c r="A409" t="s">
+        <v>24</v>
+      </c>
+      <c r="B409" t="s">
         <v>14</v>
       </c>
-      <c r="C409" s="2" t="s">
+      <c r="C409" t="s">
         <v>187</v>
       </c>
-      <c r="D409" s="2" t="s">
+      <c r="D409" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A411" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B411" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C411" s="2" t="s">
+      <c r="A411" t="s">
+        <v>24</v>
+      </c>
+      <c r="B411" t="s">
+        <v>8</v>
+      </c>
+      <c r="C411" t="s">
         <v>188</v>
       </c>
-      <c r="D411" s="2" t="s">
+      <c r="D411" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A412" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B412" s="2" t="s">
+      <c r="A412" t="s">
+        <v>24</v>
+      </c>
+      <c r="B412" t="s">
         <v>9</v>
       </c>
-      <c r="C412" s="2" t="s">
+      <c r="C412" t="s">
         <v>189</v>
       </c>
-      <c r="D412" s="2" t="s">
+      <c r="D412" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A413" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B413" s="2" t="s">
+      <c r="A413" t="s">
+        <v>24</v>
+      </c>
+      <c r="B413" t="s">
         <v>14</v>
       </c>
-      <c r="C413" s="2" t="s">
+      <c r="C413" t="s">
         <v>190</v>
       </c>
-      <c r="D413" s="2" t="s">
+      <c r="D413" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A415" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B415" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C415" s="2" t="s">
+      <c r="A415" t="s">
+        <v>24</v>
+      </c>
+      <c r="B415" t="s">
+        <v>8</v>
+      </c>
+      <c r="C415" t="s">
         <v>191</v>
       </c>
-      <c r="D415" s="2" t="s">
+      <c r="D415" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A417" s="3" t="s">
+      <c r="A417" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B417" s="3" t="s">
+      <c r="B417" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C417" s="3"/>
-      <c r="D417" s="3"/>
+      <c r="C417" s="2"/>
+      <c r="D417" s="2"/>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A418" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B418" s="3" t="s">
+      <c r="A418" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B418" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C418" s="3"/>
-      <c r="D418" s="3" t="s">
+      <c r="C418" s="2"/>
+      <c r="D418" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A420" s="5" t="s">
+      <c r="A420" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B420" s="5" t="s">
+      <c r="B420" s="3" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A421" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B421" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C421" s="2" t="s">
+      <c r="A421" t="s">
+        <v>24</v>
+      </c>
+      <c r="B421" t="s">
+        <v>8</v>
+      </c>
+      <c r="C421" t="s">
         <v>193</v>
       </c>
-      <c r="D421" s="2" t="s">
+      <c r="D421" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A422" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B422" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C422" s="2" t="s">
+      <c r="A422" t="s">
+        <v>24</v>
+      </c>
+      <c r="B422" t="s">
+        <v>8</v>
+      </c>
+      <c r="C422" t="s">
         <v>194</v>
       </c>
-      <c r="D422" s="2" t="s">
+      <c r="D422" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A423" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B423" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C423" s="2" t="s">
+      <c r="A423" t="s">
+        <v>24</v>
+      </c>
+      <c r="B423" t="s">
+        <v>8</v>
+      </c>
+      <c r="C423" t="s">
         <v>195</v>
       </c>
-      <c r="D423" s="2" t="s">
+      <c r="D423" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A424" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B424" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C424" s="2" t="s">
+      <c r="A424" t="s">
+        <v>24</v>
+      </c>
+      <c r="B424" t="s">
+        <v>8</v>
+      </c>
+      <c r="C424" t="s">
         <v>196</v>
       </c>
-      <c r="D424" s="2" t="s">
+      <c r="D424" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A425" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B425" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C425" s="2" t="s">
+      <c r="A425" t="s">
+        <v>24</v>
+      </c>
+      <c r="B425" t="s">
+        <v>8</v>
+      </c>
+      <c r="C425" t="s">
         <v>197</v>
       </c>
-      <c r="D425" s="2" t="s">
+      <c r="D425" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A426" s="4"/>
-    </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A427" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B427" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C427" s="2" t="s">
+      <c r="A427" t="s">
+        <v>24</v>
+      </c>
+      <c r="B427" t="s">
+        <v>8</v>
+      </c>
+      <c r="C427" t="s">
         <v>198</v>
       </c>
-      <c r="D427" s="2" t="s">
+      <c r="D427" t="s">
         <v>26</v>
       </c>
-      <c r="E427" s="2" t="s">
+      <c r="E427" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A428" s="2" t="s">
+      <c r="A428" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A430" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B430" s="2" t="s">
+      <c r="A430" t="s">
+        <v>24</v>
+      </c>
+      <c r="B430" t="s">
         <v>9</v>
       </c>
-      <c r="C430" s="2" t="s">
+      <c r="C430" t="s">
         <v>199</v>
       </c>
-      <c r="D430" s="2" t="s">
+      <c r="D430" t="s">
         <v>49</v>
       </c>
       <c r="E430" s="1" t="s">
@@ -5031,7 +4839,7 @@
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A431" s="2" t="s">
+      <c r="A431" t="s">
         <v>243</v>
       </c>
       <c r="E431" s="1"/>
@@ -5040,16 +4848,16 @@
       <c r="E432" s="1"/>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A433" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B433" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C433" s="2" t="s">
+      <c r="A433" t="s">
+        <v>24</v>
+      </c>
+      <c r="B433" t="s">
+        <v>8</v>
+      </c>
+      <c r="C433" t="s">
         <v>200</v>
       </c>
-      <c r="D433" s="2" t="s">
+      <c r="D433" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5058,4 +4866,68 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A48A98-76D9-453B-BCEB-CA2A4D147D57}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/WebBasedEvaluations/Documents/Upload_Evaluation_-_EVAL-001.xlsx
+++ b/WebBasedEvaluations/Documents/Upload_Evaluation_-_EVAL-001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\git\Fall-2022-Group-3-Web-Evaluation\WebBasedEvaluations\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E0C37C-0C35-41AC-9B30-46FFFF9B7225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DE149A-7388-4463-AA30-2370611A48A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3FAD3DD6-7A1D-42CB-BC54-8CFE443C5D15}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3FAD3DD6-7A1D-42CB-BC54-8CFE443C5D15}"/>
   </bookViews>
   <sheets>
     <sheet name="Eval_format" sheetId="1" r:id="rId1"/>
@@ -4873,7 +4873,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A9"/>
+      <selection activeCell="A10" sqref="A10:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
